--- a/Project Development Phase/Sprint 1/Testcases Report Template.xlsx
+++ b/Project Development Phase/Sprint 1/Testcases Report Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD54D0A-277B-4DBC-A28C-9DE444470BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CAAB3-BF48-4FD6-B593-8C75BD760F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopenzer Testcases" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>4 marks</t>
   </si>
   <si>
-    <t>PNT2022TMID12210</t>
-  </si>
-  <si>
     <t>Project - Crude Oil Price Prediction</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Check engergizer</t>
+  </si>
+  <si>
+    <t>PNT2022TMID53394</t>
   </si>
 </sst>
 </file>
@@ -361,6 +361,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,15 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2008,111 +2008,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D9"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="51.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+    <row r="1" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="6">
         <v>44868</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+    <row r="3" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+    <row r="4" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2156,22 +2156,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
@@ -2183,25 +2183,25 @@
         <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
@@ -2210,24 +2210,24 @@
         <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
@@ -2236,24 +2236,24 @@
         <v>15</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
@@ -2262,16 +2262,16 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" s="8"/>
     </row>
   </sheetData>
@@ -2290,97 +2290,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="18"/>
-    <col min="2" max="2" width="102.77734375" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="8.90625" style="9"/>
+    <col min="2" max="2" width="102.81640625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>29</v>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>30</v>
+      <c r="B13" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>31</v>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>1</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>2</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>3</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <v>4</v>
-      </c>
-      <c r="B14" s="18" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>5</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
